--- a/excel table/Connected Office Test Data (1).xlsx
+++ b/excel table/Connected Office Test Data (1).xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -289,6 +289,9 @@
   </x:si>
   <x:si>
     <x:t>Delete Test Passed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>true lol</x:t>
   </x:si>
   <x:si>
     <x:t>true</x:t>
@@ -1171,7 +1174,7 @@
   <x:dimension ref="A1:E24"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="K22" sqref="K22"/>
+      <x:selection activeCell="K16" sqref="K16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1360,7 +1363,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D11" s="2" t="b">
         <x:v>0</x:v>
@@ -1377,7 +1380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D12" s="2" t="b">
         <x:v>0</x:v>
@@ -1394,7 +1397,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D13" s="2" t="b">
         <x:v>0</x:v>
@@ -1411,7 +1414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D14" s="2" t="b">
         <x:v>0</x:v>
@@ -1428,7 +1431,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D15" s="2" t="b">
         <x:v>0</x:v>
@@ -1445,7 +1448,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D16" s="2" t="b">
         <x:v>0</x:v>
@@ -1462,7 +1465,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D17" s="2" t="b">
         <x:v>0</x:v>

--- a/excel table/Connected Office Test Data (1).xlsx
+++ b/excel table/Connected Office Test Data (1).xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -294,7 +294,10 @@
     <x:t>true lol</x:t>
   </x:si>
   <x:si>
-    <x:t>true</x:t>
+    <x:t>true bol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>true ja</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1174,7 +1177,7 @@
   <x:dimension ref="A1:E24"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="K16" sqref="K16"/>
+      <x:selection activeCell="C16" sqref="C16 C2:C16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,7 +1188,7 @@
     <x:col min="5" max="5" width="18" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1202,7 +1205,7 @@
         <x:v>74</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -1219,7 +1222,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A3" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
@@ -1236,7 +1239,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A4" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
@@ -1253,7 +1256,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A5" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -1270,7 +1273,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -1287,7 +1290,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
@@ -1304,7 +1307,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
@@ -1321,7 +1324,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
@@ -1338,7 +1341,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -1355,7 +1358,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -1372,7 +1375,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A12" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
@@ -1389,7 +1392,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A13" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
@@ -1406,7 +1409,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A14" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -1423,7 +1426,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A15" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -1440,7 +1443,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A16" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -1448,7 +1451,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D16" s="2" t="b">
         <x:v>0</x:v>
@@ -1457,7 +1460,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A17" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -1465,7 +1468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D17" s="2" t="b">
         <x:v>0</x:v>
@@ -1474,15 +1477,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A18" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C18" s="2" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D18" s="2" t="b">
         <x:v>0</x:v>
@@ -1491,15 +1494,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A19" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B19" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C19" s="2" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D19" s="2" t="b">
         <x:v>0</x:v>
@@ -1508,15 +1511,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A20" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B20" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C20" s="2" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D20" s="2" t="b">
         <x:v>0</x:v>
@@ -1525,15 +1528,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="B21" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C21" s="2" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D21" s="2" t="b">
         <x:v>0</x:v>
@@ -1542,15 +1545,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A22" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="B22" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C22" s="2" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D22" s="2" t="b">
         <x:v>0</x:v>
@@ -1559,15 +1562,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A23" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="B23" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C23" s="2" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D23" s="2" t="b">
         <x:v>0</x:v>
@@ -1576,15 +1579,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <x:row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A24" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="B24" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="b">
-        <x:v>0</x:v>
+      <x:c r="C24" s="2" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D24" s="2" t="b">
         <x:v>0</x:v>

--- a/excel table/Connected Office Test Data (1).xlsx
+++ b/excel table/Connected Office Test Data (1).xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -291,13 +291,7 @@
     <x:t>Delete Test Passed</x:t>
   </x:si>
   <x:si>
-    <x:t>true lol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>true bol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>true ja</x:t>
+    <x:t>TRUE</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1177,7 +1171,7 @@
   <x:dimension ref="A1:E24"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C16" sqref="C16 C2:C16"/>
+      <x:selection activeCell="P21" sqref="P21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,7 +1182,7 @@
     <x:col min="5" max="5" width="18" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1205,7 +1199,7 @@
         <x:v>74</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -1222,7 +1216,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A3" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
@@ -1239,7 +1233,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A4" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
@@ -1256,7 +1250,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A5" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -1273,7 +1267,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -1290,7 +1284,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
@@ -1307,7 +1301,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
@@ -1324,7 +1318,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
@@ -1341,7 +1335,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -1358,7 +1352,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -1366,7 +1360,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D11" s="2" t="b">
         <x:v>0</x:v>
@@ -1375,7 +1369,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A12" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
@@ -1383,7 +1377,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D12" s="2" t="b">
         <x:v>0</x:v>
@@ -1392,7 +1386,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A13" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
@@ -1400,7 +1394,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D13" s="2" t="b">
         <x:v>0</x:v>
@@ -1409,7 +1403,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A14" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -1417,7 +1411,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D14" s="2" t="b">
         <x:v>0</x:v>
@@ -1426,7 +1420,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A15" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -1434,7 +1428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="2" t="b">
         <x:v>0</x:v>
@@ -1443,7 +1437,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A16" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -1451,7 +1445,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D16" s="2" t="b">
         <x:v>0</x:v>
@@ -1460,7 +1454,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A17" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -1468,7 +1462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D17" s="2" t="b">
         <x:v>0</x:v>
@@ -1477,7 +1471,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A18" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -1485,7 +1479,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D18" s="2" t="b">
         <x:v>0</x:v>
@@ -1494,7 +1488,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A19" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1502,7 +1496,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D19" s="2" t="b">
         <x:v>0</x:v>
@@ -1511,7 +1505,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A20" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -1519,7 +1513,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D20" s="2" t="b">
         <x:v>0</x:v>
@@ -1528,7 +1522,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -1536,7 +1530,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D21" s="2" t="b">
         <x:v>0</x:v>
@@ -1545,7 +1539,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A22" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -1553,7 +1547,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D22" s="2" t="b">
         <x:v>0</x:v>
@@ -1562,7 +1556,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A23" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -1570,7 +1564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D23" s="2" t="b">
         <x:v>0</x:v>
@@ -1579,7 +1573,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A24" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -1587,7 +1581,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D24" s="2" t="b">
         <x:v>0</x:v>

--- a/excel table/Connected Office Test Data (1).xlsx
+++ b/excel table/Connected Office Test Data (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="3"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -99,199 +99,97 @@
     <x:t>In Operation</x:t>
   </x:si>
   <x:si>
+    <x:t>ZoneDescription</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13-175 - Ice Rinks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CategoryDescription</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Visual monitoring tool</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Create Test Passed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Update Test Passed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Test Passed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C05</x:t>
+  </x:si>
+  <x:si>
     <x:t>D02</x:t>
   </x:si>
   <x:si>
-    <x:t>Boiler Temp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Temperature Sensor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boilermaker Room</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Broken</x:t>
-  </x:si>
-  <x:si>
     <x:t>D03</x:t>
   </x:si>
   <x:si>
-    <x:t>Speed Testing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Speed Sensor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Safety Office</x:t>
-  </x:si>
-  <x:si>
     <x:t>D04</x:t>
   </x:si>
   <x:si>
-    <x:t>Entry Access</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Access Control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stucco Mason Building</x:t>
-  </x:si>
-  <x:si>
     <x:t>D05</x:t>
   </x:si>
   <x:si>
-    <x:t>Exit Access</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stopped</x:t>
-  </x:si>
-  <x:si>
     <x:t>D06</x:t>
   </x:si>
   <x:si>
-    <x:t>Light Activation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motion Sensor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Labor Office</x:t>
-  </x:si>
-  <x:si>
     <x:t>D07</x:t>
   </x:si>
   <x:si>
-    <x:t>Environmental Office</x:t>
-  </x:si>
-  <x:si>
     <x:t>D08</x:t>
   </x:si>
   <x:si>
-    <x:t>Aircon Activation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tile Setting Bench</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maintenance</x:t>
-  </x:si>
-  <x:si>
     <x:t>D09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assembly Temp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linemen Assembly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZoneDescription</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-175 - Ice Rinks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-870 - Sculpture/Ornamental</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17-030 - Bond</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-750 - Concrete Pads and Walks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iron Workshop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-400 - Precast Concrete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-523 - Sanitary Facilities</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-370 - Erosion and Sedimentation Control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-570 - Temporary Controls</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2-825 - Wood Fences and Gates</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CategoryDescription</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Visual monitoring tool</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Measuring air temp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitoring for motion to trigger action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Managing access for people entering and exiting the zone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Measuring speed of moving object</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Create Test Passed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Update Test Passed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete Test Passed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TRUE</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -704,10 +602,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F10"/>
+  <x:dimension ref="A1:F2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C38" sqref="C38"/>
+      <x:selection activeCell="C19" sqref="C19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,166 +656,6 @@
       </x:c>
       <x:c r="F2" s="2" t="b">
         <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E6" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E7" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E8" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F8" s="2" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E9" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E10" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="b">
-        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -935,10 +673,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C10"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A1" sqref="A1 A1:C10"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A3" sqref="A3 A3:C5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,106 +694,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1073,10 +723,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A1" sqref="A1 A1:C6"/>
+      <x:selection activeCell="C5" sqref="C5 A3:C5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,62 +745,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1170,8 +776,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E24"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="P21" sqref="P21"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="E24" sqref="E24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,32 +788,32 @@
     <x:col min="5" max="5" width="18" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D2" s="2" t="b">
         <x:v>0</x:v>
@@ -1216,15 +822,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A3" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B3" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="2" t="b">
         <x:v>0</x:v>
@@ -1233,15 +839,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A4" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B4" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="2" t="b">
         <x:v>0</x:v>
@@ -1250,15 +856,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A5" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B5" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D5" s="2" t="b">
         <x:v>0</x:v>
@@ -1267,15 +873,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D6" s="2" t="b">
         <x:v>0</x:v>
@@ -1284,15 +890,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B7" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="b">
         <x:v>0</x:v>
@@ -1301,15 +907,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B8" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D8" s="2" t="b">
         <x:v>0</x:v>
@@ -1318,15 +924,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B9" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D9" s="2" t="b">
         <x:v>0</x:v>
@@ -1335,15 +941,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B10" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D10" s="2" t="b">
         <x:v>0</x:v>
@@ -1352,15 +958,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B11" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D11" s="2" t="b">
         <x:v>0</x:v>
@@ -1369,15 +975,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A12" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B12" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D12" s="2" t="b">
         <x:v>0</x:v>
@@ -1386,15 +992,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A13" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B13" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D13" s="2" t="b">
         <x:v>0</x:v>
@@ -1403,15 +1009,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A14" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B14" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D14" s="2" t="b">
         <x:v>0</x:v>
@@ -1420,15 +1026,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A15" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B15" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D15" s="2" t="b">
         <x:v>0</x:v>
@@ -1437,7 +1043,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A16" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -1445,7 +1051,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D16" s="2" t="b">
         <x:v>0</x:v>
@@ -1454,15 +1060,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A17" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B17" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D17" s="2" t="b">
         <x:v>0</x:v>
@@ -1471,15 +1077,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A18" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B18" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D18" s="2" t="b">
         <x:v>0</x:v>
@@ -1488,15 +1094,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A19" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B19" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D19" s="2" t="b">
         <x:v>0</x:v>
@@ -1505,15 +1111,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A20" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B20" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="2" t="b">
         <x:v>0</x:v>
@@ -1522,15 +1128,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B21" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D21" s="2" t="b">
         <x:v>0</x:v>
@@ -1539,15 +1145,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A22" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B22" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D22" s="2" t="b">
         <x:v>0</x:v>
@@ -1556,15 +1162,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A23" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B23" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D23" s="2" t="b">
         <x:v>0</x:v>
@@ -1573,15 +1179,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <x:row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A24" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B24" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D24" s="2" t="b">
         <x:v>0</x:v>

--- a/excel table/Connected Office Test Data (1).xlsx
+++ b/excel table/Connected Office Test Data (1).xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mega\OneDrive\Documents\3 de jaar\323\project 3\CMPG-323-Overview--Project-4-34329625\excel table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mega\OneDrive\Documents\3 de jaar\323\project 3\CMPG-323-Overview--Project-4-34329625\UI-path\excel table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="1"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <x:definedName name="MOCK_DATA_1" localSheetId="1">Zone!$C$1:$C$201</x:definedName>
     <x:definedName name="MOCK_DATA_2" localSheetId="2">Category!$B$1:$C$196</x:definedName>
   </x:definedNames>
-  <x:calcPr calcId="162913"/>
+  <x:calcPr calcId="171027"/>
   <x:extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -99,6 +99,93 @@
     <x:t>In Operation</x:t>
   </x:si>
   <x:si>
+    <x:t>D02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boiler Temp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temperature Sensor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boilermaker Room</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Broken</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Speed Testing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Speed Sensor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Safety Office</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entry Access</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Access Control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stucco Mason Building</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exit Access</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stopped</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Light Activation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motion Sensor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Labor Office</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Environmental Office</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aircon Activation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tile Setting Bench</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maintenance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assembly Temp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Linemen Assembly</x:t>
+  </x:si>
+  <x:si>
     <x:t>ZoneDescription</x:t>
   </x:si>
   <x:si>
@@ -108,6 +195,57 @@
     <x:t>13-175 - Ice Rinks</x:t>
   </x:si>
   <x:si>
+    <x:t>Z02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-870 - Sculpture/Ornamental</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-030 - Bond</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-750 - Concrete Pads and Walks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iron Workshop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-400 - Precast Concrete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-523 - Sanitary Facilities</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-370 - Erosion and Sedimentation Control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-570 - Temporary Controls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2-825 - Wood Fences and Gates</x:t>
+  </x:si>
+  <x:si>
     <x:t>CategoryDescription</x:t>
   </x:si>
   <x:si>
@@ -117,10 +255,34 @@
     <x:t>Visual monitoring tool</x:t>
   </x:si>
   <x:si>
+    <x:t>C02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Measuring air temp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitoring for motion to trigger action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Managing access for people entering and exiting the zone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Measuring speed of moving object</x:t>
+  </x:si>
+  <x:si>
     <x:t>Create Test Passed</x:t>
   </x:si>
   <x:si>
-    <x:t>lol</x:t>
+    <x:t>Read Test Passed</x:t>
   </x:si>
   <x:si>
     <x:t>Update Test Passed</x:t>
@@ -130,66 +292,6 @@
   </x:si>
   <x:si>
     <x:t>TRUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D09</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -602,15 +704,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F2"/>
+  <x:dimension ref="A1:F10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C19" sqref="C19"/>
+      <x:selection activeCell="C38" sqref="C38"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.109375" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="18" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="37.664062" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="21" style="0" bestFit="1" customWidth="1"/>
@@ -656,6 +758,166 @@
       </x:c>
       <x:c r="F2" s="2" t="b">
         <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="b">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -673,15 +935,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C2"/>
+  <x:dimension ref="A1:C10"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3 A3:C5"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A1" sqref="A1 A1:C10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.109375" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="21" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="46.332031" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
@@ -694,18 +956,106 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -723,15 +1073,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C2"/>
+  <x:dimension ref="A1:C6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C5" sqref="C5 A3:C5"/>
+      <x:selection activeCell="A1" sqref="A1 A1:C6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.109375" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="41.332031" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="53.109375" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="11.332031" style="0" bestFit="1" customWidth="1"/>
@@ -745,18 +1095,62 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>70</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -776,8 +1170,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E24"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E24" sqref="E24"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,27 +1187,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B2" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D2" s="2" t="b">
         <x:v>0</x:v>
@@ -824,13 +1218,13 @@
     </x:row>
     <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B3" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D3" s="2" t="b">
         <x:v>0</x:v>
@@ -841,13 +1235,13 @@
     </x:row>
     <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B4" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D4" s="2" t="b">
         <x:v>0</x:v>
@@ -858,13 +1252,13 @@
     </x:row>
     <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A5" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B5" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D5" s="2" t="b">
         <x:v>0</x:v>
@@ -875,13 +1269,13 @@
     </x:row>
     <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B6" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D6" s="2" t="b">
         <x:v>0</x:v>
@@ -892,13 +1286,13 @@
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B7" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D7" s="2" t="b">
         <x:v>0</x:v>
@@ -909,13 +1303,13 @@
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B8" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D8" s="2" t="b">
         <x:v>0</x:v>
@@ -926,13 +1320,13 @@
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B9" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D9" s="2" t="b">
         <x:v>0</x:v>
@@ -943,13 +1337,13 @@
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B10" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D10" s="2" t="b">
         <x:v>0</x:v>
@@ -960,13 +1354,13 @@
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D11" s="2" t="b">
         <x:v>0</x:v>
@@ -977,13 +1371,13 @@
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A12" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B12" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D12" s="2" t="b">
         <x:v>0</x:v>
@@ -994,13 +1388,13 @@
     </x:row>
     <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A13" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B13" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D13" s="2" t="b">
         <x:v>0</x:v>
@@ -1011,13 +1405,13 @@
     </x:row>
     <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A14" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B14" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D14" s="2" t="b">
         <x:v>0</x:v>
@@ -1028,13 +1422,13 @@
     </x:row>
     <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A15" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B15" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="2" t="b">
         <x:v>0</x:v>
@@ -1051,7 +1445,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D16" s="2" t="b">
         <x:v>0</x:v>
@@ -1062,13 +1456,13 @@
     </x:row>
     <x:row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A17" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B17" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D17" s="2" t="b">
         <x:v>0</x:v>
@@ -1079,13 +1473,13 @@
     </x:row>
     <x:row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A18" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D18" s="2" t="b">
         <x:v>0</x:v>
@@ -1096,13 +1490,13 @@
     </x:row>
     <x:row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A19" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B19" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D19" s="2" t="b">
         <x:v>0</x:v>
@@ -1113,13 +1507,13 @@
     </x:row>
     <x:row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A20" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B20" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D20" s="2" t="b">
         <x:v>0</x:v>
@@ -1130,13 +1524,13 @@
     </x:row>
     <x:row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A21" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B21" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D21" s="2" t="b">
         <x:v>0</x:v>
@@ -1147,13 +1541,13 @@
     </x:row>
     <x:row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A22" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B22" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D22" s="2" t="b">
         <x:v>0</x:v>
@@ -1164,13 +1558,13 @@
     </x:row>
     <x:row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A23" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B23" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D23" s="2" t="b">
         <x:v>0</x:v>
@@ -1181,13 +1575,13 @@
     </x:row>
     <x:row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A24" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B24" s="2" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D24" s="2" t="b">
         <x:v>0</x:v>
